--- a/data/trans_orig/Q5415-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BAD5267-6F04-4909-A4FA-75A7A1917285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D185EE1F-E681-4D22-A7D0-7B4CC67F92F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F448397-90FF-44CD-8187-1024149CA081}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F202A09-F110-4AB4-8A3A-FFFE21C02953}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="595">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>22,62%</t>
   </si>
   <si>
     <t>12,14%</t>
@@ -110,1696 +110,1720 @@
     <t>7,98%</t>
   </si>
   <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>50 o mas metros sin ayuda</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>50 o mas metros sin ayuda</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>15,2%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>11,93%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>81,89%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05FEA8C-5ED6-41BB-886D-2953B46695AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F543095B-669A-4084-9DCC-B5BE791A832A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2547,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2556,13 +2580,13 @@
         <v>5798</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -2571,13 +2595,13 @@
         <v>7693</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2616,13 @@
         <v>8277</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -2607,13 +2631,13 @@
         <v>8595</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -2622,13 +2646,13 @@
         <v>16873</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2667,13 @@
         <v>78443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -2658,28 +2682,28 @@
         <v>110818</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
       </c>
       <c r="N10" s="7">
-        <v>189260</v>
+        <v>189261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,7 +2745,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>35</v>
@@ -2735,7 +2759,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2747,13 +2771,13 @@
         <v>2959</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -2762,13 +2786,13 @@
         <v>7464</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -3162,10 +3186,10 @@
         <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3174,13 +3198,13 @@
         <v>8514</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3189,13 +3213,13 @@
         <v>11004</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3234,13 @@
         <v>4124</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -3225,13 +3249,13 @@
         <v>20647</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -3240,13 +3264,13 @@
         <v>24771</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3285,13 @@
         <v>130602</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>173</v>
@@ -3276,13 +3300,13 @@
         <v>179616</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>321</v>
@@ -3291,13 +3315,13 @@
         <v>310220</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3389,13 @@
         <v>7344</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3380,13 +3404,13 @@
         <v>31253</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -3395,13 +3419,13 @@
         <v>38597</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3440,13 @@
         <v>30303</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -3431,10 +3455,10 @@
         <v>54225</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>156</v>
@@ -3470,10 +3494,10 @@
         <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>581</v>
@@ -3482,13 +3506,13 @@
         <v>591363</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>1063</v>
@@ -3497,13 +3521,13 @@
         <v>1056183</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,7 +3583,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28696C1A-1777-4031-8CF7-D87B9E606F66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4AEC48-DC08-44E7-AD19-9D9D7570D72E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3597,7 +3621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3704,13 +3728,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3719,13 +3743,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3734,13 +3758,13 @@
         <v>4441</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3776,7 +3800,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3791,7 +3815,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,10 +3830,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>28</v>
@@ -3821,13 +3845,13 @@
         <v>21718</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -3836,13 +3860,13 @@
         <v>41951</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3934,13 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -3928,10 +3952,10 @@
         <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3940,13 +3964,13 @@
         <v>11381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3985,13 @@
         <v>5211</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3976,13 +4000,13 @@
         <v>15069</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -3991,13 +4015,13 @@
         <v>20280</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,7 +4036,7 @@
         <v>111014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>205</v>
@@ -4104,7 +4128,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4131,13 +4155,13 @@
         <v>22911</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -4146,13 +4170,13 @@
         <v>30354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4191,13 @@
         <v>13077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4182,13 +4206,13 @@
         <v>23085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -4197,13 +4221,13 @@
         <v>36162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4242,13 @@
         <v>134358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -4233,13 +4257,13 @@
         <v>145424</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>256</v>
@@ -4248,13 +4272,13 @@
         <v>279782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4346,13 @@
         <v>7657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4337,13 +4361,13 @@
         <v>18416</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -4352,13 +4376,13 @@
         <v>26073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4397,13 @@
         <v>4188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4388,13 +4412,13 @@
         <v>15111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4403,13 +4427,13 @@
         <v>19299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,10 +4448,10 @@
         <v>91753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>83</v>
@@ -4439,13 +4463,13 @@
         <v>107491</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>180</v>
@@ -4454,13 +4478,13 @@
         <v>199244</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4552,13 @@
         <v>4979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -4543,13 +4567,13 @@
         <v>15695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -4558,13 +4582,13 @@
         <v>20674</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4603,13 @@
         <v>13322</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -4594,13 +4618,13 @@
         <v>19518</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -4609,13 +4633,13 @@
         <v>32839</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4654,13 @@
         <v>143312</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -4645,13 +4669,13 @@
         <v>208538</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -4660,7 +4684,7 @@
         <v>351850</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>284</v>
@@ -4737,10 +4761,10 @@
         <v>286</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>99</v>
+        <v>287</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H24" s="7">
         <v>63</v>
@@ -4749,13 +4773,13 @@
         <v>69754</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -4764,7 +4788,7 @@
         <v>92923</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>291</v>
+        <v>229</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>292</v>
@@ -4788,10 +4812,10 @@
         <v>294</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -4800,13 +4824,13 @@
         <v>72783</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -4815,13 +4839,13 @@
         <v>108581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4860,13 @@
         <v>500670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>564</v>
@@ -4851,13 +4875,13 @@
         <v>600438</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>1016</v>
@@ -4866,13 +4890,13 @@
         <v>1101108</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,7 +4952,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA65F1E3-A46C-4804-937D-7C42C884D28D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73130D87-3C64-4E4E-889C-B4135FE76BF9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4966,7 +4990,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5073,13 +5097,13 @@
         <v>1843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5088,13 +5112,13 @@
         <v>1223</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5103,13 +5127,13 @@
         <v>3066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5148,13 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5139,13 +5163,13 @@
         <v>4047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -5154,13 +5178,13 @@
         <v>5126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5199,13 @@
         <v>18766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5190,13 +5214,13 @@
         <v>18169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5205,13 +5229,13 @@
         <v>36935</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5303,13 @@
         <v>4339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5294,13 +5318,13 @@
         <v>5624</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5309,13 +5333,13 @@
         <v>9963</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5354,13 @@
         <v>4790</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -5345,13 +5369,13 @@
         <v>17384</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -5360,13 +5384,13 @@
         <v>22174</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>154</v>
+        <v>350</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>350</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5405,13 @@
         <v>105917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -5396,13 +5420,13 @@
         <v>126943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -5411,13 +5435,13 @@
         <v>232860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,7 +5497,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5485,13 +5509,13 @@
         <v>4303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>362</v>
+        <v>155</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5500,13 +5524,13 @@
         <v>5470</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5515,10 +5539,10 @@
         <v>9772</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>367</v>
@@ -5569,10 +5593,10 @@
         <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5611,13 @@
         <v>150583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
@@ -5602,13 +5626,13 @@
         <v>185281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>315</v>
@@ -5617,13 +5641,13 @@
         <v>335864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5715,13 @@
         <v>3624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5706,13 +5730,13 @@
         <v>16628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5721,13 +5745,13 @@
         <v>20252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5766,13 @@
         <v>4804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5757,13 +5781,13 @@
         <v>17521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5772,13 +5796,13 @@
         <v>22325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5817,13 @@
         <v>106607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>90</v>
@@ -5808,13 +5832,13 @@
         <v>108447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>403</v>
+        <v>238</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>405</v>
+        <v>211</v>
       </c>
       <c r="M18" s="7">
         <v>195</v>
@@ -5823,13 +5847,13 @@
         <v>215054</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5921,13 @@
         <v>4646</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5912,13 +5936,13 @@
         <v>11352</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5948,7 +5972,7 @@
         <v>7684</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>417</v>
@@ -5984,7 +6008,7 @@
         <v>423</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>424</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6023,13 @@
         <v>162288</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -6014,13 +6038,13 @@
         <v>209749</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>351</v>
@@ -6029,13 +6053,13 @@
         <v>372038</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,10 +6130,10 @@
         <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>63</v>
+        <v>433</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>319</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -6136,7 +6160,7 @@
         <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>438</v>
@@ -6187,10 +6211,10 @@
         <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>447</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,10 +6232,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -6220,13 +6244,13 @@
         <v>648591</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>1127</v>
@@ -6235,13 +6259,13 @@
         <v>1192751</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,7 +6321,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6318,7 +6342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C45AC5-B04D-46AC-BCC2-29610358762A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E592F3A3-0425-464D-AF1F-8E669EFB5DFA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6335,7 +6359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6442,13 +6466,13 @@
         <v>1795</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6457,13 +6481,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>460</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -6472,13 +6496,13 @@
         <v>6364</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6517,13 @@
         <v>1926</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>465</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -6508,13 +6532,13 @@
         <v>7230</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -6523,13 +6547,13 @@
         <v>9156</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6568,13 @@
         <v>25943</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H6" s="7">
         <v>83</v>
@@ -6559,13 +6583,13 @@
         <v>33622</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M6" s="7">
         <v>123</v>
@@ -6574,13 +6598,13 @@
         <v>59566</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>237</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6672,13 @@
         <v>3909</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -6663,13 +6687,13 @@
         <v>17811</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -6681,7 +6705,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>292</v>
+        <v>484</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>485</v>
@@ -6702,10 +6726,10 @@
         <v>486</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>487</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -6714,13 +6738,13 @@
         <v>22794</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M9" s="7">
         <v>71</v>
@@ -6729,10 +6753,10 @@
         <v>35807</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>492</v>
+        <v>156</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>493</v>
@@ -6756,7 +6780,7 @@
         <v>495</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>245</v>
@@ -6842,7 +6866,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6857,7 +6881,7 @@
         <v>502</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>503</v>
@@ -6872,10 +6896,10 @@
         <v>504</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -6884,13 +6908,13 @@
         <v>25428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,10 +6932,10 @@
         <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -6920,10 +6944,10 @@
         <v>36793</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>513</v>
@@ -6935,13 +6959,13 @@
         <v>49919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>514</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,13 +6980,13 @@
         <v>154655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -6971,13 +6995,13 @@
         <v>186240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M14" s="7">
         <v>572</v>
@@ -6986,13 +7010,13 @@
         <v>340895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,13 +7084,13 @@
         <v>4174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -7075,7 +7099,7 @@
         <v>16109</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>528</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>529</v>
@@ -7093,10 +7117,10 @@
         <v>531</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>532</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>436</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,7 +7135,7 @@
         <v>9134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>533</v>
@@ -7144,10 +7168,10 @@
         <v>538</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>539</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7162,13 +7186,13 @@
         <v>134882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -7177,13 +7201,13 @@
         <v>243813</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>544</v>
+        <v>354</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -7192,13 +7216,13 @@
         <v>378695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>211</v>
+        <v>547</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,13 +7290,13 @@
         <v>6354</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>550</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>548</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -7281,13 +7305,13 @@
         <v>20419</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>551</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>549</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
@@ -7296,13 +7320,13 @@
         <v>26773</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7341,13 @@
         <v>12199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>555</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>553</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -7332,13 +7356,13 @@
         <v>44058</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M21" s="7">
         <v>91</v>
@@ -7347,13 +7371,13 @@
         <v>56256</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>485</v>
+        <v>560</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,13 +7392,13 @@
         <v>201691</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>231</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H22" s="7">
         <v>420</v>
@@ -7383,13 +7407,13 @@
         <v>245076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M22" s="7">
         <v>718</v>
@@ -7398,13 +7422,13 @@
         <v>446767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,13 +7496,13 @@
         <v>22297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>568</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>417</v>
+        <v>240</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H24" s="7">
         <v>140</v>
@@ -7487,13 +7511,13 @@
         <v>78272</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -7502,13 +7526,13 @@
         <v>100568</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,13 +7547,13 @@
         <v>49399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>577</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>578</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -7538,13 +7562,13 @@
         <v>131441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>419</v>
+        <v>581</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -7553,13 +7577,13 @@
         <v>180840</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>418</v>
+        <v>584</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,13 +7598,13 @@
         <v>625225</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="H26" s="7">
         <v>1327</v>
@@ -7589,13 +7613,13 @@
         <v>815366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="M26" s="7">
         <v>2244</v>
@@ -7604,13 +7628,13 @@
         <v>1440591</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>380</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7666,7 +7690,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5415-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D185EE1F-E681-4D22-A7D0-7B4CC67F92F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B9F24FA-D094-43FE-95B8-D0790F32CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F202A09-F110-4AB4-8A3A-FFFE21C02953}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4FC9774D-363B-4FD4-A00E-855A127C4C32}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="602">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Totalmente incapaz</t>
@@ -95,7 +95,7 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>22,62%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>12,14%</t>
@@ -104,16 +104,16 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>31,51%</t>
+    <t>28,21%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>50 o mas metros sin ayuda</t>
@@ -122,7 +122,7 @@
     <t>95,85%</t>
   </si>
   <si>
-    <t>77,38%</t>
+    <t>80,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -131,7 +131,7 @@
     <t>87,86%</t>
   </si>
   <si>
-    <t>68,49%</t>
+    <t>71,79%</t>
   </si>
   <si>
     <t>96,12%</t>
@@ -140,1626 +140,1650 @@
     <t>92,02%</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>6,88%</t>
+    <t>8,41%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
     <t>9,3%</t>
   </si>
   <si>
@@ -1770,9 +1794,6 @@
   </si>
   <si>
     <t>6,87%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
   </si>
   <si>
     <t>5,67%</t>
@@ -2235,7 +2256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F543095B-669A-4084-9DCC-B5BE791A832A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0512516-261E-4FBA-B8E4-6B04EA30A28F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2694,7 +2715,7 @@
         <v>193</v>
       </c>
       <c r="N10" s="7">
-        <v>189261</v>
+        <v>189260</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>60</v>
@@ -2745,7 +2766,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>35</v>
@@ -2792,7 +2813,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -2801,13 +2822,13 @@
         <v>10422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2843,13 @@
         <v>10588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2837,13 +2858,13 @@
         <v>15538</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2852,13 +2873,13 @@
         <v>26126</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2894,13 @@
         <v>132343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
@@ -2888,13 +2909,13 @@
         <v>159678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>280</v>
@@ -2903,13 +2924,13 @@
         <v>292020</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,7 +2986,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2983,7 +3004,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2992,13 +3013,13 @@
         <v>9478</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3007,13 +3028,13 @@
         <v>9478</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3049,13 @@
         <v>6219</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3043,13 +3064,13 @@
         <v>6492</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -3058,13 +3079,13 @@
         <v>12711</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3100,13 @@
         <v>98152</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>125</v>
@@ -3094,13 +3115,13 @@
         <v>119881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>220</v>
@@ -3109,13 +3130,13 @@
         <v>218032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3192,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3183,13 +3204,13 @@
         <v>2490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3198,13 +3219,13 @@
         <v>8514</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3216,10 +3237,10 @@
         <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3255,13 @@
         <v>4124</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -3249,13 +3270,13 @@
         <v>20647</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -3264,7 +3285,7 @@
         <v>24771</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>131</v>
@@ -3321,7 +3342,7 @@
         <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3410,13 @@
         <v>7344</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3404,13 +3425,13 @@
         <v>31253</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -3419,13 +3440,13 @@
         <v>38597</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3461,13 @@
         <v>30303</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -3455,13 +3476,13 @@
         <v>54225</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -3470,13 +3491,13 @@
         <v>84528</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3512,13 @@
         <v>464820</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>581</v>
@@ -3506,13 +3527,13 @@
         <v>591363</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>1063</v>
@@ -3521,13 +3542,13 @@
         <v>1056183</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3604,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4AEC48-DC08-44E7-AD19-9D9D7570D72E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA13DE3-E5B6-469B-96E4-2119C9C39B78}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3621,7 +3642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3728,13 +3749,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3743,13 +3764,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3758,13 +3779,13 @@
         <v>4441</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,7 +3806,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3800,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3815,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,10 +3851,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>28</v>
@@ -3845,13 +3866,13 @@
         <v>21718</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -3860,13 +3881,13 @@
         <v>41951</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,7 +3955,7 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -4021,7 +4042,7 @@
         <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>204</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,7 +4057,7 @@
         <v>111014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>205</v>
@@ -4334,7 +4355,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4346,13 +4367,13 @@
         <v>7657</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4361,13 +4382,13 @@
         <v>18416</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -4376,13 +4397,13 @@
         <v>26073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4418,13 @@
         <v>4188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4412,13 +4433,13 @@
         <v>15111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4430,10 +4451,10 @@
         <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4469,13 @@
         <v>91753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -4463,13 +4484,13 @@
         <v>107491</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M18" s="7">
         <v>180</v>
@@ -4478,13 +4499,13 @@
         <v>199244</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4561,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4552,13 +4573,13 @@
         <v>4979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -4567,13 +4588,13 @@
         <v>15695</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -4582,13 +4603,13 @@
         <v>20674</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4624,13 @@
         <v>13322</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -4618,13 +4639,13 @@
         <v>19518</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -4633,13 +4654,13 @@
         <v>32839</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4675,13 @@
         <v>143312</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -4669,13 +4690,13 @@
         <v>208538</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -4684,13 +4705,13 @@
         <v>351850</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4779,13 @@
         <v>23169</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H24" s="7">
         <v>63</v>
@@ -4773,13 +4794,13 @@
         <v>69754</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -4788,13 +4809,13 @@
         <v>92923</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4830,13 @@
         <v>35798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -4824,13 +4845,13 @@
         <v>72783</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -4839,13 +4860,13 @@
         <v>108581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4881,13 @@
         <v>500670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>564</v>
@@ -4875,13 +4896,13 @@
         <v>600438</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>1016</v>
@@ -4890,13 +4911,13 @@
         <v>1101108</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,7 +4973,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4973,7 +4994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73130D87-3C64-4E4E-889C-B4135FE76BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B16DE9C-86CF-4F56-B17F-51551488105B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4990,7 +5011,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5097,13 +5118,13 @@
         <v>1843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5112,13 +5133,13 @@
         <v>1223</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5127,13 +5148,13 @@
         <v>3066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5169,13 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5163,13 +5184,13 @@
         <v>4047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -5178,13 +5199,13 @@
         <v>5126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5220,13 @@
         <v>18766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5214,13 +5235,13 @@
         <v>18169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>332</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5229,13 +5250,13 @@
         <v>36935</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5324,13 @@
         <v>4339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5318,13 +5339,13 @@
         <v>5624</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5333,13 +5354,13 @@
         <v>9963</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5375,13 @@
         <v>4790</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -5369,13 +5390,13 @@
         <v>17384</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -5384,13 +5405,13 @@
         <v>22174</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5426,13 @@
         <v>105917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -5420,13 +5441,13 @@
         <v>126943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -5435,13 +5456,13 @@
         <v>232860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,7 +5504,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>35</v>
@@ -5509,13 +5530,13 @@
         <v>4303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5524,13 +5545,13 @@
         <v>5470</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>175</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5539,13 +5560,13 @@
         <v>9772</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>126</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5581,13 @@
         <v>10056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5575,13 +5596,13 @@
         <v>28412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -5590,13 +5611,13 @@
         <v>38468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5632,13 @@
         <v>150583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
@@ -5626,13 +5647,13 @@
         <v>185281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>315</v>
@@ -5641,13 +5662,13 @@
         <v>335864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,7 +5724,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5715,13 +5736,13 @@
         <v>3624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5730,13 +5751,13 @@
         <v>16628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5745,13 +5766,13 @@
         <v>20252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5787,13 @@
         <v>4804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5781,7 +5802,7 @@
         <v>17521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>398</v>
@@ -5832,13 +5853,13 @@
         <v>108447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>211</v>
+        <v>408</v>
       </c>
       <c r="M18" s="7">
         <v>195</v>
@@ -5847,13 +5868,13 @@
         <v>215054</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,7 +5930,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5921,13 +5942,13 @@
         <v>4646</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5936,13 +5957,13 @@
         <v>11352</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5951,13 +5972,13 @@
         <v>15998</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,10 +5996,10 @@
         <v>196</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -5987,13 +6008,13 @@
         <v>21680</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -6002,13 +6023,13 @@
         <v>29364</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>423</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>41</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6044,13 @@
         <v>162288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -6038,13 +6059,13 @@
         <v>209749</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>351</v>
@@ -6053,13 +6074,13 @@
         <v>372038</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>83</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6148,13 @@
         <v>18755</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -6142,13 +6163,13 @@
         <v>40296</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -6157,13 +6178,13 @@
         <v>59051</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>440</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6199,13 @@
         <v>28413</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -6193,13 +6214,13 @@
         <v>89044</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -6208,13 +6229,13 @@
         <v>117457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>97</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,10 +6253,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -6244,13 +6265,13 @@
         <v>648591</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>1127</v>
@@ -6259,13 +6280,13 @@
         <v>1192751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,7 +6342,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6342,7 +6363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E592F3A3-0425-464D-AF1F-8E669EFB5DFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FE9A5-DCF4-42D7-9278-6EC7968A8303}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6359,7 +6380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6466,13 +6487,13 @@
         <v>1795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>454</v>
+        <v>128</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6481,13 +6502,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>462</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -6496,13 +6517,13 @@
         <v>6364</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6538,13 @@
         <v>1926</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -6532,13 +6553,13 @@
         <v>7230</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -6547,13 +6568,13 @@
         <v>9156</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6589,13 @@
         <v>25943</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H6" s="7">
         <v>83</v>
@@ -6583,13 +6604,13 @@
         <v>33622</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M6" s="7">
         <v>123</v>
@@ -6598,13 +6619,13 @@
         <v>59566</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6693,13 @@
         <v>3909</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -6687,13 +6708,13 @@
         <v>17811</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -6705,10 +6726,10 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,13 +6744,13 @@
         <v>13014</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -6738,13 +6759,13 @@
         <v>22794</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M9" s="7">
         <v>71</v>
@@ -6753,13 +6774,13 @@
         <v>35807</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>156</v>
+        <v>499</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,13 +6795,13 @@
         <v>108054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>494</v>
+        <v>381</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>245</v>
@@ -6789,13 +6810,13 @@
         <v>106615</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M10" s="7">
         <v>423</v>
@@ -6804,13 +6825,13 @@
         <v>214669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>501</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6899,13 @@
         <v>6064</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>318</v>
+        <v>508</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -6893,13 +6914,13 @@
         <v>19364</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>504</v>
+        <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -6908,13 +6929,13 @@
         <v>25428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6950,13 @@
         <v>13127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>515</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -6944,13 +6965,13 @@
         <v>36793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -6959,13 +6980,13 @@
         <v>49919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +7001,13 @@
         <v>154655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -6995,13 +7016,13 @@
         <v>186240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>572</v>
@@ -7010,13 +7031,13 @@
         <v>340895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,7 +7093,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7084,13 +7105,13 @@
         <v>4174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -7099,13 +7120,13 @@
         <v>16109</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>534</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>529</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7114,13 +7135,13 @@
         <v>20283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>537</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7156,13 @@
         <v>9134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>532</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7150,13 +7171,13 @@
         <v>20568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -7165,13 +7186,13 @@
         <v>29702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>540</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7207,13 @@
         <v>134882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -7201,13 +7222,13 @@
         <v>243813</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>354</v>
+        <v>550</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -7216,13 +7237,13 @@
         <v>378695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7299,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7290,13 +7311,13 @@
         <v>6354</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -7305,13 +7326,13 @@
         <v>20419</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>552</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
@@ -7320,10 +7341,10 @@
         <v>26773</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>44</v>
@@ -7341,13 +7362,13 @@
         <v>12199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>560</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -7356,13 +7377,13 @@
         <v>44058</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="M21" s="7">
         <v>91</v>
@@ -7371,13 +7392,13 @@
         <v>56256</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7413,13 @@
         <v>201691</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H22" s="7">
         <v>420</v>
@@ -7407,13 +7428,13 @@
         <v>245076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>718</v>
@@ -7422,13 +7443,13 @@
         <v>446767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7496,13 +7517,13 @@
         <v>22297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>577</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>240</v>
+        <v>578</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="H24" s="7">
         <v>140</v>
@@ -7511,13 +7532,13 @@
         <v>78272</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -7526,13 +7547,13 @@
         <v>100568</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7547,13 +7568,13 @@
         <v>49399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>577</v>
+        <v>266</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -7562,13 +7583,13 @@
         <v>131441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -7577,13 +7598,13 @@
         <v>180840</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,13 +7619,13 @@
         <v>625225</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="H26" s="7">
         <v>1327</v>
@@ -7613,13 +7634,13 @@
         <v>815366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="M26" s="7">
         <v>2244</v>
@@ -7628,13 +7649,13 @@
         <v>1440591</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,7 +7711,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5415-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B9F24FA-D094-43FE-95B8-D0790F32CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A350684F-65F5-4229-B2DA-5EFE675B6BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4FC9774D-363B-4FD4-A00E-855A127C4C32}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82BC43DA-C94F-4457-8DEF-589F8CCCFE02}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="587">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>19,99%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>12,14%</t>
@@ -104,1747 +104,1702 @@
     <t>3,88%</t>
   </si>
   <si>
-    <t>28,21%</t>
+    <t>31,51%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>50 o mas metros sin ayuda</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>50 o mas metros sin ayuda</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>15,2%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>11,93%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>81,89%</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0512516-261E-4FBA-B8E4-6B04EA30A28F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F21894-4320-47C6-8F71-60895DA50087}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2592,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2601,13 +2556,13 @@
         <v>5798</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -2616,13 +2571,13 @@
         <v>7693</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2592,13 @@
         <v>8277</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -2652,13 +2607,13 @@
         <v>8595</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -2667,13 +2622,13 @@
         <v>16873</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,13 +2643,13 @@
         <v>78443</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -2703,13 +2658,13 @@
         <v>110818</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>193</v>
@@ -2718,13 +2673,13 @@
         <v>189260</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,7 +2735,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2792,13 +2747,13 @@
         <v>2959</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -2807,13 +2762,13 @@
         <v>7464</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -2822,13 +2777,13 @@
         <v>10422</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2798,13 @@
         <v>10588</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2858,13 +2813,13 @@
         <v>15538</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2873,13 +2828,13 @@
         <v>26126</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2849,13 @@
         <v>132343</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
@@ -2909,13 +2864,13 @@
         <v>159678</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>280</v>
@@ -2924,13 +2879,13 @@
         <v>292020</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,7 +2941,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3004,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3013,13 +2968,13 @@
         <v>9478</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3028,13 +2983,13 @@
         <v>9478</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3004,13 @@
         <v>6219</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3064,13 +3019,13 @@
         <v>6492</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -3079,13 +3034,13 @@
         <v>12711</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3055,13 @@
         <v>98152</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>125</v>
@@ -3115,13 +3070,13 @@
         <v>119881</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>220</v>
@@ -3130,13 +3085,13 @@
         <v>218032</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,7 +3147,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3204,10 +3159,10 @@
         <v>2490</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>119</v>
@@ -3225,7 +3180,7 @@
         <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3234,13 +3189,13 @@
         <v>11004</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3210,13 @@
         <v>4124</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -3270,13 +3225,13 @@
         <v>20647</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -3285,13 +3240,13 @@
         <v>24771</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3261,13 @@
         <v>130602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>173</v>
@@ -3321,13 +3276,13 @@
         <v>179616</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>321</v>
@@ -3336,13 +3291,13 @@
         <v>310220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3365,13 @@
         <v>7344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -3425,13 +3380,13 @@
         <v>31253</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -3440,13 +3395,13 @@
         <v>38597</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3416,13 @@
         <v>30303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -3476,13 +3431,13 @@
         <v>54225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -3491,13 +3446,13 @@
         <v>84528</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3467,13 @@
         <v>464820</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>581</v>
@@ -3527,13 +3482,13 @@
         <v>591363</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>1063</v>
@@ -3542,13 +3497,13 @@
         <v>1056183</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3559,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3625,7 +3580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA13DE3-E5B6-469B-96E4-2119C9C39B78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D09E47-ECC6-4342-A48D-3912417294AF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3642,7 +3597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3749,13 +3704,13 @@
         <v>965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3764,13 +3719,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3779,13 +3734,13 @@
         <v>4441</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3821,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3836,7 +3791,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,10 +3806,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>28</v>
@@ -3866,13 +3821,13 @@
         <v>21718</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -3881,13 +3836,13 @@
         <v>41951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3910,13 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -3973,10 +3928,10 @@
         <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -3985,13 +3940,13 @@
         <v>11381</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3961,13 @@
         <v>5211</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -4021,13 +3976,13 @@
         <v>15069</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -4036,13 +3991,13 @@
         <v>20280</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4104,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4176,13 +4131,13 @@
         <v>22911</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -4191,13 +4146,13 @@
         <v>30354</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4167,13 @@
         <v>13077</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4227,13 +4182,13 @@
         <v>23085</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -4242,13 +4197,13 @@
         <v>36162</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4218,13 @@
         <v>134358</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -4278,13 +4233,13 @@
         <v>145424</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>256</v>
@@ -4293,13 +4248,13 @@
         <v>279782</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,7 +4310,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4367,13 +4322,13 @@
         <v>7657</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4382,13 +4337,13 @@
         <v>18416</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -4397,13 +4352,13 @@
         <v>26073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4373,13 @@
         <v>4188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4433,13 +4388,13 @@
         <v>15111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4448,13 +4403,13 @@
         <v>19299</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4424,13 @@
         <v>91753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -4484,13 +4439,13 @@
         <v>107491</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>180</v>
@@ -4499,13 +4454,13 @@
         <v>199244</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4516,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4573,13 +4528,13 @@
         <v>4979</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -4588,13 +4543,13 @@
         <v>15695</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -4603,13 +4558,13 @@
         <v>20674</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4579,13 @@
         <v>13322</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -4639,13 +4594,13 @@
         <v>19518</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -4654,13 +4609,13 @@
         <v>32839</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4630,13 @@
         <v>143312</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -4690,13 +4645,13 @@
         <v>208538</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>327</v>
@@ -4705,13 +4660,13 @@
         <v>351850</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4734,13 @@
         <v>23169</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H24" s="7">
         <v>63</v>
@@ -4794,13 +4749,13 @@
         <v>69754</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M24" s="7">
         <v>83</v>
@@ -4809,13 +4764,13 @@
         <v>92923</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4785,13 @@
         <v>35798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>107</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -4845,13 +4800,13 @@
         <v>72783</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -4860,13 +4815,13 @@
         <v>108581</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4836,13 @@
         <v>500670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>564</v>
@@ -4896,13 +4851,13 @@
         <v>600438</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>1016</v>
@@ -4911,13 +4866,13 @@
         <v>1101108</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,7 +4928,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4994,7 +4949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B16DE9C-86CF-4F56-B17F-51551488105B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF9D8D1-3591-4FAF-8B1D-E5E3D53015E8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5011,7 +4966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5118,13 +5073,13 @@
         <v>1843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5133,13 +5088,13 @@
         <v>1223</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5148,13 +5103,13 @@
         <v>3066</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5124,13 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5184,13 +5139,13 @@
         <v>4047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -5199,13 +5154,13 @@
         <v>5126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5175,13 @@
         <v>18766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5235,13 +5190,13 @@
         <v>18169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>38</v>
@@ -5250,13 +5205,13 @@
         <v>36935</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5279,13 @@
         <v>4339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5339,13 +5294,13 @@
         <v>5624</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5354,13 +5309,13 @@
         <v>9963</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5330,13 @@
         <v>4790</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -5390,13 +5345,13 @@
         <v>17384</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -5405,13 +5360,13 @@
         <v>22174</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>351</v>
+        <v>154</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5381,13 @@
         <v>105917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -5441,13 +5396,13 @@
         <v>126943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>228</v>
@@ -5456,13 +5411,13 @@
         <v>232860</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,7 +5459,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>35</v>
@@ -5518,7 +5473,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5530,13 +5485,13 @@
         <v>4303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5545,13 +5500,13 @@
         <v>5470</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5560,13 +5515,13 @@
         <v>9772</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5536,13 @@
         <v>10056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5596,13 +5551,13 @@
         <v>28412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -5611,13 +5566,13 @@
         <v>38468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5587,13 @@
         <v>150583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>156</v>
@@ -5647,13 +5602,13 @@
         <v>185281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>315</v>
@@ -5662,13 +5617,13 @@
         <v>335864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,7 +5679,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5736,13 +5691,13 @@
         <v>3624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5751,13 +5706,13 @@
         <v>16628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5766,13 +5721,13 @@
         <v>20252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5742,13 @@
         <v>4804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5802,13 +5757,13 @@
         <v>17521</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5817,13 +5772,13 @@
         <v>22325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5793,13 @@
         <v>106607</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H18" s="7">
         <v>90</v>
@@ -5853,13 +5808,13 @@
         <v>108447</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M18" s="7">
         <v>195</v>
@@ -5868,13 +5823,13 @@
         <v>215054</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,7 +5885,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5942,13 +5897,13 @@
         <v>4646</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -5957,13 +5912,13 @@
         <v>11352</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -5972,13 +5927,13 @@
         <v>15998</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5948,13 @@
         <v>7684</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -6008,13 +5963,13 @@
         <v>21680</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -6023,13 +5978,13 @@
         <v>29364</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +5999,13 @@
         <v>162288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -6059,13 +6014,13 @@
         <v>209749</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>351</v>
@@ -6074,10 +6029,10 @@
         <v>372038</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>433</v>
@@ -6148,13 +6103,13 @@
         <v>18755</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>434</v>
+        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -6163,13 +6118,13 @@
         <v>40296</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -6178,13 +6133,13 @@
         <v>59051</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>440</v>
+        <v>269</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6154,13 @@
         <v>28413</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>52</v>
+        <v>439</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>72</v>
@@ -6214,13 +6169,13 @@
         <v>89044</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>104</v>
@@ -6229,13 +6184,13 @@
         <v>117457</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,10 +6208,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>552</v>
@@ -6265,13 +6220,13 @@
         <v>648591</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>1127</v>
@@ -6280,13 +6235,13 @@
         <v>1192751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,7 +6297,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6363,7 +6318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27FE9A5-DCF4-42D7-9278-6EC7968A8303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5810F11F-B98F-493F-959A-EF57505AD75F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6380,7 +6335,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6487,13 +6442,13 @@
         <v>1795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>128</v>
+        <v>456</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6502,13 +6457,13 @@
         <v>4569</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -6517,13 +6472,13 @@
         <v>6364</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6493,13 @@
         <v>1926</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -6553,13 +6508,13 @@
         <v>7230</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -6568,13 +6523,13 @@
         <v>9156</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6544,13 @@
         <v>25943</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H6" s="7">
         <v>83</v>
@@ -6604,13 +6559,13 @@
         <v>33622</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M6" s="7">
         <v>123</v>
@@ -6619,13 +6574,13 @@
         <v>59566</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>483</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6648,13 @@
         <v>3909</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -6708,13 +6663,13 @@
         <v>17811</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -6726,10 +6681,10 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>490</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,13 +6699,13 @@
         <v>13014</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>493</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -6759,13 +6714,13 @@
         <v>22794</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M9" s="7">
         <v>71</v>
@@ -6774,13 +6729,13 @@
         <v>35807</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6750,13 @@
         <v>108054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>494</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>245</v>
@@ -6810,13 +6765,13 @@
         <v>106615</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M10" s="7">
         <v>423</v>
@@ -6825,13 +6780,13 @@
         <v>214669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,7 +6842,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6899,13 +6854,13 @@
         <v>6064</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>508</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -6914,13 +6869,13 @@
         <v>19364</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>217</v>
+        <v>504</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -6929,13 +6884,13 @@
         <v>25428</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6905,13 @@
         <v>13127</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -6965,13 +6920,13 @@
         <v>36793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>518</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -6980,13 +6935,13 @@
         <v>49919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>520</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,13 +6956,13 @@
         <v>154655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>348</v>
@@ -7016,13 +6971,13 @@
         <v>186240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>572</v>
@@ -7031,13 +6986,13 @@
         <v>340895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,7 +7048,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7105,13 +7060,13 @@
         <v>4174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -7120,13 +7075,13 @@
         <v>16109</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>529</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7135,13 +7090,13 @@
         <v>20283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7111,13 @@
         <v>9134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>503</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -7171,13 +7126,13 @@
         <v>20568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -7186,13 +7141,13 @@
         <v>29702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>544</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7207,13 +7162,13 @@
         <v>134882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H18" s="7">
         <v>231</v>
@@ -7222,13 +7177,13 @@
         <v>243813</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -7237,13 +7192,13 @@
         <v>378695</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>552</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,7 +7254,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7311,13 +7266,13 @@
         <v>6354</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>548</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -7326,13 +7281,13 @@
         <v>20419</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>556</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>549</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>550</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
@@ -7341,13 +7296,13 @@
         <v>26773</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7317,13 @@
         <v>12199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>559</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -7377,13 +7332,13 @@
         <v>44058</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="M21" s="7">
         <v>91</v>
@@ -7392,13 +7347,13 @@
         <v>56256</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>565</v>
+        <v>485</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,13 +7368,13 @@
         <v>201691</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>568</v>
+        <v>231</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="H22" s="7">
         <v>420</v>
@@ -7428,13 +7383,13 @@
         <v>245076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="M22" s="7">
         <v>718</v>
@@ -7443,13 +7398,13 @@
         <v>446767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,13 +7472,13 @@
         <v>22297</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>578</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H24" s="7">
         <v>140</v>
@@ -7532,13 +7487,13 @@
         <v>78272</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>216</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>580</v>
+        <v>398</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -7547,13 +7502,13 @@
         <v>100568</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,13 +7523,13 @@
         <v>49399</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>266</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>585</v>
+        <v>71</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="H25" s="7">
         <v>238</v>
@@ -7583,13 +7538,13 @@
         <v>131441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>588</v>
+        <v>419</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -7598,13 +7553,13 @@
         <v>180840</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>591</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,13 +7574,13 @@
         <v>625225</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="H26" s="7">
         <v>1327</v>
@@ -7634,13 +7589,13 @@
         <v>815366</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="M26" s="7">
         <v>2244</v>
@@ -7649,13 +7604,13 @@
         <v>1440591</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>601</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7711,7 +7666,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
